--- a/files/de/Madaster Materialen.xlsx
+++ b/files/de/Madaster Materialen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Docs\madaster.github.io\files\de\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dreso-my.sharepoint.com/personal/claudius_frank_dreso_com/Documents/Github/madaster.github.io/files/de/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900FE56A-7656-44C7-ADEC-C2CB11EDEF75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{900FE56A-7656-44C7-ADEC-C2CB11EDEF75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{36FE2C8A-6338-4532-B568-9B3798C70EE4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="422" xr2:uid="{7DD9E97D-3B26-464E-BDE1-BD3A566B3ACB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="422" xr2:uid="{7DD9E97D-3B26-464E-BDE1-BD3A566B3ACB}"/>
   </bookViews>
   <sheets>
     <sheet name="Materialien" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="902">
   <si>
     <t>Madaster UID</t>
   </si>
@@ -2745,6 +2745,9 @@
   </si>
   <si>
     <t>Unbekannt</t>
+  </si>
+  <si>
+    <t>Bitumen</t>
   </si>
 </sst>
 </file>
@@ -2977,11 +2980,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Standaard 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Standaard 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Standaard 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2997,7 +3000,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3296,42 +3299,42 @@
   <dimension ref="A1:Z223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D1:D1048576"/>
+      <selection pane="bottomRight" activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5703125" customWidth="1"/>
-    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.5703125" customWidth="1"/>
-    <col min="17" max="17" width="24.5703125" customWidth="1"/>
-    <col min="18" max="18" width="22.5703125" customWidth="1"/>
-    <col min="19" max="19" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5546875" customWidth="1"/>
+    <col min="13" max="13" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.5546875" customWidth="1"/>
+    <col min="17" max="17" width="24.5546875" customWidth="1"/>
+    <col min="18" max="18" width="22.5546875" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="26" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3375,7 +3378,7 @@
       <c r="Y1" s="26"/>
       <c r="Z1" s="16"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="13" t="s">
@@ -3449,7 +3452,7 @@
       </c>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -3569,7 +3572,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -3632,7 +3635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -3692,7 +3695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -3737,7 +3740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -3794,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -3860,7 +3863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -4025,7 +4028,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -4145,7 +4148,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -4193,7 +4196,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -4316,7 +4319,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -4448,7 +4451,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -4508,7 +4511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -4550,7 +4553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -4610,7 +4613,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -4730,7 +4733,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -4793,7 +4796,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -4853,7 +4856,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>120</v>
       </c>
@@ -4901,7 +4904,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -4961,7 +4964,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>128</v>
       </c>
@@ -5003,7 +5006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -5063,7 +5066,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>133</v>
       </c>
@@ -5129,7 +5132,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -5171,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>140</v>
       </c>
@@ -5240,7 +5243,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -5300,7 +5303,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -5360,7 +5363,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -5402,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>155</v>
       </c>
@@ -5462,7 +5465,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>159</v>
       </c>
@@ -5522,7 +5525,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>162</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -5627,7 +5630,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -5684,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>171</v>
       </c>
@@ -5726,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -5786,7 +5789,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -5831,7 +5834,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>184</v>
       </c>
@@ -5945,7 +5948,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>189</v>
       </c>
@@ -6005,7 +6008,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>193</v>
       </c>
@@ -6068,7 +6071,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>197</v>
       </c>
@@ -6113,7 +6116,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>200</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>202</v>
       </c>
@@ -6218,7 +6221,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>206</v>
       </c>
@@ -6278,7 +6281,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>209</v>
       </c>
@@ -6341,7 +6344,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>213</v>
       </c>
@@ -6383,7 +6386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>215</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>220</v>
       </c>
@@ -6482,7 +6485,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>224</v>
       </c>
@@ -6524,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>226</v>
       </c>
@@ -6587,7 +6590,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>230</v>
       </c>
@@ -6644,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>233</v>
       </c>
@@ -6686,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>235</v>
       </c>
@@ -6743,7 +6746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>237</v>
       </c>
@@ -6803,7 +6806,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>241</v>
       </c>
@@ -6863,7 +6866,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>245</v>
       </c>
@@ -6923,7 +6926,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>248</v>
       </c>
@@ -6968,7 +6971,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>251</v>
       </c>
@@ -7031,7 +7034,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>256</v>
       </c>
@@ -7079,7 +7082,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>260</v>
       </c>
@@ -7121,7 +7124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>262</v>
       </c>
@@ -7184,7 +7187,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>265</v>
       </c>
@@ -7247,7 +7250,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>270</v>
       </c>
@@ -7292,7 +7295,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>273</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>276</v>
       </c>
@@ -7385,7 +7388,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>280</v>
       </c>
@@ -7445,7 +7448,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>284</v>
       </c>
@@ -7505,7 +7508,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>287</v>
       </c>
@@ -7547,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>289</v>
       </c>
@@ -7589,7 +7592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>291</v>
       </c>
@@ -7649,7 +7652,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>294</v>
       </c>
@@ -7709,7 +7712,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>297</v>
       </c>
@@ -7772,7 +7775,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>302</v>
       </c>
@@ -7835,7 +7838,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>307</v>
       </c>
@@ -7898,7 +7901,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>311</v>
       </c>
@@ -7940,7 +7943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>313</v>
       </c>
@@ -8000,7 +8003,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>316</v>
       </c>
@@ -8042,7 +8045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>318</v>
       </c>
@@ -8087,7 +8090,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>322</v>
       </c>
@@ -8153,7 +8156,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>327</v>
       </c>
@@ -8195,7 +8198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>329</v>
       </c>
@@ -8255,7 +8258,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>332</v>
       </c>
@@ -8318,7 +8321,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>336</v>
       </c>
@@ -8378,7 +8381,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>339</v>
       </c>
@@ -8420,7 +8423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>341</v>
       </c>
@@ -8462,7 +8465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>343</v>
       </c>
@@ -8522,7 +8525,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>346</v>
       </c>
@@ -8579,7 +8582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>349</v>
       </c>
@@ -8639,7 +8642,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>352</v>
       </c>
@@ -8681,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>354</v>
       </c>
@@ -8723,7 +8726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>356</v>
       </c>
@@ -8783,7 +8786,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>360</v>
       </c>
@@ -8825,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>362</v>
       </c>
@@ -8870,7 +8873,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>365</v>
       </c>
@@ -8930,7 +8933,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>369</v>
       </c>
@@ -8990,7 +8993,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>372</v>
       </c>
@@ -9035,7 +9038,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>375</v>
       </c>
@@ -9092,7 +9095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>377</v>
       </c>
@@ -9134,7 +9137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>379</v>
       </c>
@@ -9176,7 +9179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>381</v>
       </c>
@@ -9248,7 +9251,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>388</v>
       </c>
@@ -9290,7 +9293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>389</v>
       </c>
@@ -9347,7 +9350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>391</v>
       </c>
@@ -9410,7 +9413,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>395</v>
       </c>
@@ -9470,7 +9473,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>399</v>
       </c>
@@ -9533,7 +9536,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>404</v>
       </c>
@@ -9578,7 +9581,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>407</v>
       </c>
@@ -9638,7 +9641,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>410</v>
       </c>
@@ -9698,7 +9701,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>413</v>
       </c>
@@ -9743,7 +9746,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>416</v>
       </c>
@@ -9800,12 +9803,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>419</v>
       </c>
       <c r="B120" t="s">
-        <v>420</v>
+        <v>901</v>
       </c>
       <c r="C120" s="17">
         <v>2000</v>
@@ -9857,7 +9860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>421</v>
       </c>
@@ -9899,7 +9902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>423</v>
       </c>
@@ -9959,7 +9962,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>426</v>
       </c>
@@ -10022,7 +10025,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>431</v>
       </c>
@@ -10085,7 +10088,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>436</v>
       </c>
@@ -10145,7 +10148,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>439</v>
       </c>
@@ -10193,7 +10196,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>443</v>
       </c>
@@ -10253,7 +10256,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>446</v>
       </c>
@@ -10313,7 +10316,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>449</v>
       </c>
@@ -10373,7 +10376,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>452</v>
       </c>
@@ -10418,7 +10421,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>455</v>
       </c>
@@ -10478,7 +10481,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>458</v>
       </c>
@@ -10538,7 +10541,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>462</v>
       </c>
@@ -10583,7 +10586,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>465</v>
       </c>
@@ -10643,7 +10646,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>468</v>
       </c>
@@ -10703,7 +10706,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>471</v>
       </c>
@@ -10751,7 +10754,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>475</v>
       </c>
@@ -10811,7 +10814,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>478</v>
       </c>
@@ -10868,7 +10871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>480</v>
       </c>
@@ -10931,7 +10934,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>484</v>
       </c>
@@ -10973,7 +10976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>486</v>
       </c>
@@ -11036,7 +11039,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>490</v>
       </c>
@@ -11096,7 +11099,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>493</v>
       </c>
@@ -11138,7 +11141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>495</v>
       </c>
@@ -11189,7 +11192,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>500</v>
       </c>
@@ -11231,7 +11234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>502</v>
       </c>
@@ -11297,7 +11300,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>507</v>
       </c>
@@ -11339,7 +11342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>509</v>
       </c>
@@ -11399,7 +11402,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>512</v>
       </c>
@@ -11459,7 +11462,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>515</v>
       </c>
@@ -11522,7 +11525,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>520</v>
       </c>
@@ -11588,7 +11591,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>525</v>
       </c>
@@ -11648,7 +11651,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>528</v>
       </c>
@@ -11708,7 +11711,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>531</v>
       </c>
@@ -11768,7 +11771,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>534</v>
       </c>
@@ -11834,7 +11837,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>539</v>
       </c>
@@ -11897,7 +11900,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>543</v>
       </c>
@@ -11939,7 +11942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>545</v>
       </c>
@@ -12002,7 +12005,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>549</v>
       </c>
@@ -12044,7 +12047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>551</v>
       </c>
@@ -12107,7 +12110,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>555</v>
       </c>
@@ -12149,7 +12152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>557</v>
       </c>
@@ -12212,7 +12215,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>561</v>
       </c>
@@ -12257,7 +12260,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>564</v>
       </c>
@@ -12320,7 +12323,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>568</v>
       </c>
@@ -12362,7 +12365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>570</v>
       </c>
@@ -12425,7 +12428,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>574</v>
       </c>
@@ -12467,7 +12470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>576</v>
       </c>
@@ -12524,7 +12527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>578</v>
       </c>
@@ -12590,7 +12593,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>583</v>
       </c>
@@ -12632,7 +12635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>585</v>
       </c>
@@ -12704,7 +12707,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>592</v>
       </c>
@@ -12746,7 +12749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>594</v>
       </c>
@@ -12806,7 +12809,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>597</v>
       </c>
@@ -12848,7 +12851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>599</v>
       </c>
@@ -12893,7 +12896,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>602</v>
       </c>
@@ -12935,7 +12938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>604</v>
       </c>
@@ -12995,7 +12998,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>607</v>
       </c>
@@ -13058,7 +13061,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>611</v>
       </c>
@@ -13103,7 +13106,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>614</v>
       </c>
@@ -13148,7 +13151,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>617</v>
       </c>
@@ -13190,7 +13193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>619</v>
       </c>
@@ -13250,7 +13253,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>622</v>
       </c>
@@ -13310,7 +13313,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>625</v>
       </c>
@@ -13355,7 +13358,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>628</v>
       </c>
@@ -13415,7 +13418,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>631</v>
       </c>
@@ -13457,7 +13460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>633</v>
       </c>
@@ -13517,7 +13520,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>636</v>
       </c>
@@ -13580,7 +13583,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>640</v>
       </c>
@@ -13625,7 +13628,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>643</v>
       </c>
@@ -13688,7 +13691,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>648</v>
       </c>
@@ -13730,7 +13733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>650</v>
       </c>
@@ -13790,7 +13793,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>653</v>
       </c>
@@ -13850,7 +13853,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>656</v>
       </c>
@@ -13895,7 +13898,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>659</v>
       </c>
@@ -13909,7 +13912,7 @@
         <v>44</v>
       </c>
       <c r="E195" s="3" t="str">
-        <f t="shared" ref="E195:E258" si="7">VLOOKUP(D195,madaster,5,FALSE)</f>
+        <f t="shared" ref="E195:E222" si="7">VLOOKUP(D195,madaster,5,FALSE)</f>
         <v>Kunststoff</v>
       </c>
       <c r="F195" t="s">
@@ -13948,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="R195" s="18">
-        <f t="shared" ref="R195:R258" si="8">1-Q195-O195</f>
+        <f t="shared" ref="R195:R222" si="8">1-Q195-O195</f>
         <v>1</v>
       </c>
       <c r="S195" t="s">
@@ -13958,7 +13961,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>664</v>
       </c>
@@ -14018,7 +14021,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>666</v>
       </c>
@@ -14063,7 +14066,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>668</v>
       </c>
@@ -14123,7 +14126,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>672</v>
       </c>
@@ -14165,7 +14168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>674</v>
       </c>
@@ -14219,7 +14222,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>680</v>
       </c>
@@ -14279,7 +14282,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>683</v>
       </c>
@@ -14339,7 +14342,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>686</v>
       </c>
@@ -14399,7 +14402,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>688</v>
       </c>
@@ -14441,7 +14444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>690</v>
       </c>
@@ -14501,7 +14504,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>693</v>
       </c>
@@ -14546,7 +14549,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>696</v>
       </c>
@@ -14606,7 +14609,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>700</v>
       </c>
@@ -14666,7 +14669,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>702</v>
       </c>
@@ -14708,7 +14711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>704</v>
       </c>
@@ -14768,7 +14771,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>707</v>
       </c>
@@ -14828,7 +14831,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>710</v>
       </c>
@@ -14891,7 +14894,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>714</v>
       </c>
@@ -14948,7 +14951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>715</v>
       </c>
@@ -14990,7 +14993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>717</v>
       </c>
@@ -15044,7 +15047,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>723</v>
       </c>
@@ -15095,7 +15098,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>728</v>
       </c>
@@ -15155,7 +15158,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>731</v>
       </c>
@@ -15218,7 +15221,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>734</v>
       </c>
@@ -15260,7 +15263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>736</v>
       </c>
@@ -15305,7 +15308,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>739</v>
       </c>
@@ -15365,7 +15368,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>742</v>
       </c>
@@ -15425,7 +15428,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>745</v>
       </c>
@@ -15457,14 +15460,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>747</v>
       </c>
@@ -15475,7 +15478,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -15486,7 +15489,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -15497,7 +15500,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -15508,7 +15511,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>756</v>
       </c>
@@ -15519,7 +15522,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>759</v>
       </c>
@@ -15530,7 +15533,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -15541,7 +15544,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>764</v>
       </c>
@@ -15552,7 +15555,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -15563,7 +15566,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>769</v>
       </c>
@@ -15574,7 +15577,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>772</v>
       </c>
@@ -15585,7 +15588,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>698</v>
       </c>
@@ -15596,7 +15599,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>367</v>
       </c>
@@ -15607,7 +15610,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>779</v>
       </c>
@@ -15618,7 +15621,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>358</v>
       </c>
@@ -15629,7 +15632,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -15640,7 +15643,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -15651,7 +15654,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -15662,7 +15665,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -15673,7 +15676,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>791</v>
       </c>
@@ -15684,7 +15687,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>401</v>
       </c>
@@ -15695,7 +15698,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>796</v>
       </c>
@@ -15706,7 +15709,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>798</v>
       </c>
@@ -15717,7 +15720,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>801</v>
       </c>
@@ -15728,7 +15731,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>428</v>
       </c>
@@ -15739,7 +15742,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>517</v>
       </c>
@@ -15750,7 +15753,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>807</v>
       </c>
@@ -15761,7 +15764,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -15772,7 +15775,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>812</v>
       </c>
@@ -15783,7 +15786,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>815</v>
       </c>
@@ -15794,7 +15797,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>818</v>
       </c>
@@ -15805,7 +15808,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>433</v>
       </c>
@@ -15816,7 +15819,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -15827,7 +15830,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>824</v>
       </c>
@@ -15838,7 +15841,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>827</v>
       </c>
@@ -15849,7 +15852,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>304</v>
       </c>
@@ -15860,7 +15863,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>832</v>
       </c>
@@ -15871,7 +15874,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>661</v>
       </c>
@@ -15882,7 +15885,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>299</v>
       </c>
@@ -15893,7 +15896,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>645</v>
       </c>
@@ -15904,7 +15907,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>841</v>
       </c>
@@ -15915,7 +15918,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>844</v>
       </c>
@@ -15926,7 +15929,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>239</v>
       </c>
@@ -15937,7 +15940,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>348</v>
       </c>
@@ -15948,7 +15951,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>170</v>
       </c>
@@ -15959,7 +15962,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>850</v>
       </c>
@@ -15970,7 +15973,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -15981,7 +15984,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>418</v>
       </c>
@@ -15992,7 +15995,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>565</v>
       </c>
@@ -16003,7 +16006,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>859</v>
       </c>
@@ -16014,7 +16017,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -16025,7 +16028,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -16036,7 +16039,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>460</v>
       </c>
@@ -16047,7 +16050,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>397</v>
       </c>
@@ -16058,7 +16061,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>670</v>
       </c>
@@ -16069,7 +16072,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>869</v>
       </c>
@@ -16080,7 +16083,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -16091,7 +16094,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>232</v>
       </c>
@@ -16102,7 +16105,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>875</v>
       </c>
@@ -16113,7 +16116,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>282</v>
       </c>
@@ -16124,7 +16127,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>879</v>
       </c>
@@ -16135,7 +16138,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -16146,7 +16149,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -16157,7 +16160,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>253</v>
       </c>
@@ -16168,7 +16171,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>886</v>
       </c>
@@ -16179,7 +16182,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -16190,7 +16193,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>891</v>
       </c>
@@ -16212,15 +16215,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="3" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="3" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>894</v>
       </c>
@@ -16234,7 +16237,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -16245,7 +16248,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -16256,7 +16259,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -16267,7 +16270,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -16278,7 +16281,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -16289,7 +16292,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -16300,7 +16303,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>320</v>
       </c>
@@ -16326,15 +16329,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC45C626AFD4834F9D245F7AB5D9135F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ecd8caefa507418aaf1be219cf8b2802">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="df098682-0678-4d36-9e33-ca1e73596984" xmlns:ns3="f3b0e59f-ebd2-4e66-9d11-0de0cd38b9f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21e621961b64680fbfa2314522d81b86" ns2:_="" ns3:_="">
     <xsd:import namespace="df098682-0678-4d36-9e33-ca1e73596984"/>
@@ -16545,6 +16539,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{672218A9-75B7-499A-B961-1EC796ADABB9}">
   <ds:schemaRefs>
@@ -16563,14 +16566,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BF3D51F-2AE2-4F4E-8E1C-42B9E9A74343}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE6B0E68-1030-4618-9866-5D4104DC85F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16587,4 +16582,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BF3D51F-2AE2-4F4E-8E1C-42B9E9A74343}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>